--- a/firmware/LV_Sim/data/LV_Network_Data.xlsx
+++ b/firmware/LV_Sim/data/LV_Network_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Repository\Solar-Voltage-Violation-Mitigation\firmware\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Repository\Solar-Voltage-Violation-Mitigation\firmware\LV_Sim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="60">
   <si>
     <t>Feeder</t>
   </si>
@@ -85,21 +85,9 @@
     <t>EN95</t>
   </si>
   <si>
-    <t>EN95/1</t>
-  </si>
-  <si>
     <t>50ABC</t>
   </si>
   <si>
-    <t>EN95/2</t>
-  </si>
-  <si>
-    <t>EN95/3</t>
-  </si>
-  <si>
-    <t>EN95/4</t>
-  </si>
-  <si>
     <t>JPN2A</t>
   </si>
   <si>
@@ -115,12 +103,6 @@
     <t>JPN3A</t>
   </si>
   <si>
-    <t>JPN3/1</t>
-  </si>
-  <si>
-    <t>JPN3/2</t>
-  </si>
-  <si>
     <t>Feeder 2</t>
   </si>
   <si>
@@ -178,18 +160,6 @@
     <t>JPN5-1A</t>
   </si>
   <si>
-    <t>Feeder 3</t>
-  </si>
-  <si>
-    <t>JPN5/1</t>
-  </si>
-  <si>
-    <t>JPN5/2</t>
-  </si>
-  <si>
-    <t>JPN5/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rating_kVA </t>
   </si>
   <si>
@@ -217,8 +187,25 @@
     <t>Span_m</t>
   </si>
   <si>
-    <t>Services 
-at To Pole</t>
+    <t>ServicesatPole</t>
+  </si>
+  <si>
+    <t>EN95-1</t>
+  </si>
+  <si>
+    <t>JPN3-1</t>
+  </si>
+  <si>
+    <t>JPN3-2</t>
+  </si>
+  <si>
+    <t>EN95-4</t>
+  </si>
+  <si>
+    <t>EN95-3</t>
+  </si>
+  <si>
+    <t>EN95-2</t>
   </si>
 </sst>
 </file>
@@ -262,12 +249,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,32 +547,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>63</v>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -835,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>44.38</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -852,16 +839,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>13.61</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -872,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>27.18</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -892,16 +879,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>29.04</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -915,13 +902,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>23.08</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -932,16 +919,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>29.28</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -952,16 +939,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>27.58</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -972,16 +959,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>46.19</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -995,13 +982,13 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1015,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>30.71</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1032,16 +1019,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>30.46</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1049,13 +1036,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>33.770000000000003</v>
@@ -1069,13 +1056,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>18.149999999999999</v>
@@ -1089,13 +1076,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>32.86</v>
@@ -1109,13 +1096,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>17.190000000000001</v>
@@ -1129,13 +1116,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>11.81</v>
@@ -1149,13 +1136,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
       <c r="D31">
         <v>35.25</v>
@@ -1169,19 +1156,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>11.69</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1189,19 +1176,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>10.17</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1209,19 +1196,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>32.35</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1229,19 +1216,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>34.97</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1249,19 +1236,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>33.950000000000003</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1269,19 +1256,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>21.83</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1289,19 +1276,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>23.8</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1309,19 +1296,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <v>29.77</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1329,19 +1316,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>44.42</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1349,19 +1336,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <v>20.55</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1369,19 +1356,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>36.130000000000003</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1389,92 +1376,32 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>6.9420000000000002</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45">
-        <v>10.47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46">
-        <v>13.47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E46">
@@ -1504,19 +1431,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,13 +1486,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
